--- a/lab5/Matlab/csv/lab5.xlsx
+++ b/lab5/Matlab/csv/lab5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamaj\code\CT-labs\lab5\Matlab\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFDF00C-DA94-4060-B8CE-BEA9DC047B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20C66E5-0EEB-497D-B5DA-5B066505E4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15900" yWindow="90" windowWidth="15810" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
   <si>
     <t>7kHz</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>deg</t>
-  </si>
-  <si>
-    <t>-1,9</t>
   </si>
   <si>
     <t>delta</t>
@@ -408,17 +405,17 @@
   <dimension ref="B1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
@@ -426,13 +423,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
@@ -446,13 +443,13 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
       </c>
       <c r="L3" t="s">
         <v>2</v>
@@ -464,13 +461,13 @@
         <v>4</v>
       </c>
       <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>7</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>8</v>
       </c>
       <c r="V3" t="s">
         <v>2</v>
@@ -482,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="Y3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>7</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
@@ -501,8 +498,8 @@
       <c r="D4">
         <v>1.0760000000000001</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
+      <c r="E4" s="1">
+        <v>-1.9</v>
       </c>
       <c r="F4">
         <f>C4-D4</f>
@@ -564,7 +561,7 @@
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1.117</v>
@@ -587,7 +584,7 @@
         <v>6.8300000000000001E-3</v>
       </c>
       <c r="K5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5">
         <v>1.1160000000000001</v>
@@ -610,7 +607,7 @@
         <v>2.210000000000001E-3</v>
       </c>
       <c r="U5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V5">
         <v>1.117</v>
@@ -635,7 +632,7 @@
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1.117</v>
@@ -658,7 +655,7 @@
         <v>2.3899999999999998E-3</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L6">
         <v>1.1160000000000001</v>
@@ -681,7 +678,7 @@
         <v>2.1800000000000009E-3</v>
       </c>
       <c r="U6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V6">
         <v>1.117</v>
@@ -706,7 +703,7 @@
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1.117</v>
@@ -729,7 +726,7 @@
         <v>1.0800000000000009E-3</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>1.1160000000000001</v>
@@ -752,7 +749,7 @@
         <v>7.3000000000000181E-4</v>
       </c>
       <c r="U7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V7">
         <v>1.117</v>
@@ -777,10 +774,10 @@
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
@@ -794,13 +791,13 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
         <v>6</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
       </c>
       <c r="L12" t="s">
         <v>2</v>
@@ -812,13 +809,13 @@
         <v>4</v>
       </c>
       <c r="O12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
         <v>6</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>7</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
@@ -871,7 +868,7 @@
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>1.1160000000000001</v>
@@ -894,7 +891,7 @@
         <v>4.5400000000000006E-3</v>
       </c>
       <c r="K14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <v>1.1160000000000001</v>
@@ -919,7 +916,7 @@
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1.1160000000000001</v>
@@ -942,7 +939,7 @@
         <v>1.6600000000000015E-3</v>
       </c>
       <c r="K15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L15">
         <v>1.1160000000000001</v>
@@ -967,7 +964,7 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>1.1160000000000001</v>
@@ -990,7 +987,7 @@
         <v>1.1000000000000009E-3</v>
       </c>
       <c r="K16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16">
         <v>1.1160000000000001</v>

--- a/lab5/Matlab/csv/lab5.xlsx
+++ b/lab5/Matlab/csv/lab5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamaj\code\CT-labs\lab5\Matlab\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20C66E5-0EEB-497D-B5DA-5B066505E4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9783AC-89A9-49F9-9C4E-52E4AF72484D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15900" yWindow="90" windowWidth="15810" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="B1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
